--- a/3_Football_Team_FIFA_2023.xlsx
+++ b/3_Football_Team_FIFA_2023.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\Tese\4. Modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985BF348-800E-48A1-97A2-90C5CC454C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEC8EDE-73C0-44E3-9F01-63FE34D25D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC 3.4_Football Team FIFA" sheetId="4" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PBC 3.4_Football Team FIFA'!$A$1:$BB$713</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5884,13 +5887,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4074A68B-D111-46B1-A337-BBD59D04A976}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BB713"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BB713"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1:AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -6422,7 +6434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1337</v>
       </c>
@@ -7023,7 +7035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1318</v>
       </c>
@@ -7258,7 +7270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1335</v>
       </c>
@@ -7371,7 +7383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1343</v>
       </c>
@@ -7484,7 +7496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1354</v>
       </c>
@@ -7597,7 +7609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1362</v>
       </c>
@@ -7710,7 +7722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1369</v>
       </c>
@@ -8189,7 +8201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1325</v>
       </c>
@@ -8302,7 +8314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>105035</v>
       </c>
@@ -9635,7 +9647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1328</v>
       </c>
@@ -9748,7 +9760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1370</v>
       </c>
@@ -10593,7 +10605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>234</v>
       </c>
@@ -10959,7 +10971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1331</v>
       </c>
@@ -11560,7 +11572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>236</v>
       </c>
@@ -11682,7 +11694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>237</v>
       </c>
@@ -11804,7 +11816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>245</v>
       </c>
@@ -12048,7 +12060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1353</v>
       </c>
@@ -12893,7 +12905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1322</v>
       </c>
@@ -13006,7 +13018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1330</v>
       </c>
@@ -13119,7 +13131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1386</v>
       </c>
@@ -13476,7 +13488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>111111</v>
       </c>
@@ -14199,7 +14211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>247</v>
       </c>
@@ -14321,7 +14333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>325</v>
       </c>
@@ -14443,7 +14455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>326</v>
       </c>
@@ -14687,7 +14699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>436</v>
       </c>
@@ -15419,7 +15431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1352</v>
       </c>
@@ -15532,7 +15544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1359</v>
       </c>
@@ -15645,7 +15657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1363</v>
       </c>
@@ -16002,7 +16014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1876</v>
       </c>
@@ -16124,7 +16136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1896</v>
       </c>
@@ -17222,7 +17234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>231</v>
       </c>
@@ -17344,7 +17356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>246</v>
       </c>
@@ -17832,7 +17844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1366</v>
       </c>
@@ -17945,7 +17957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1387</v>
       </c>
@@ -18180,7 +18192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1877</v>
       </c>
@@ -18546,7 +18558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>111462</v>
       </c>
@@ -19513,7 +19525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>78</v>
       </c>
@@ -19879,7 +19891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>266</v>
       </c>
@@ -20001,7 +20013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>278</v>
       </c>
@@ -20123,7 +20135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>327</v>
       </c>
@@ -20733,7 +20745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1886</v>
       </c>
@@ -20846,7 +20858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1906</v>
       </c>
@@ -21334,7 +21346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>101085</v>
       </c>
@@ -21944,7 +21956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>86</v>
       </c>
@@ -22188,7 +22200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>230</v>
       </c>
@@ -22310,7 +22322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>267</v>
       </c>
@@ -22676,7 +22688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>605</v>
       </c>
@@ -22798,7 +22810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>673</v>
       </c>
@@ -22920,7 +22932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>674</v>
       </c>
@@ -23286,7 +23298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1367</v>
       </c>
@@ -23521,7 +23533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1795</v>
       </c>
@@ -23643,7 +23655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1796</v>
       </c>
@@ -23887,7 +23899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1853</v>
       </c>
@@ -24009,7 +24021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1884</v>
       </c>
@@ -24131,7 +24143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>101014</v>
       </c>
@@ -24375,7 +24387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>110468</v>
       </c>
@@ -24497,7 +24509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>111455</v>
       </c>
@@ -24610,7 +24622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>112139</v>
       </c>
@@ -24732,7 +24744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>112996</v>
       </c>
@@ -24976,7 +24988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>211</v>
       </c>
@@ -25098,7 +25110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>229</v>
       </c>
@@ -25586,7 +25598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>393</v>
       </c>
@@ -25708,7 +25720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>472</v>
       </c>
@@ -25952,7 +25964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>819</v>
       </c>
@@ -26074,7 +26086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1355</v>
       </c>
@@ -26187,7 +26199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1356</v>
       </c>
@@ -26300,7 +26312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1415</v>
       </c>
@@ -26535,7 +26547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1792</v>
       </c>
@@ -26657,7 +26669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1794</v>
       </c>
@@ -26901,7 +26913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>101088</v>
       </c>
@@ -27023,7 +27035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>110556</v>
       </c>
@@ -27267,7 +27279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>110832</v>
       </c>
@@ -27755,7 +27767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>12</v>
       </c>
@@ -27999,7 +28011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>109</v>
       </c>
@@ -28121,7 +28133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>205</v>
       </c>
@@ -28365,7 +28377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>463</v>
       </c>
@@ -28487,7 +28499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>467</v>
       </c>
@@ -28609,7 +28621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>607</v>
       </c>
@@ -28731,7 +28743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>741</v>
       </c>
@@ -28853,7 +28865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>900</v>
       </c>
@@ -28972,7 +28984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1516</v>
       </c>
@@ -29094,7 +29106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>1874</v>
       </c>
@@ -29216,7 +29228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>1888</v>
       </c>
@@ -29338,7 +29350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1903</v>
       </c>
@@ -29460,7 +29472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1908</v>
       </c>
@@ -29582,7 +29594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>2014</v>
       </c>
@@ -29704,7 +29716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>101007</v>
       </c>
@@ -29826,7 +29838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>101016</v>
       </c>
@@ -30070,7 +30082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>101083</v>
       </c>
@@ -30192,7 +30204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>110395</v>
       </c>
@@ -30314,7 +30326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>110406</v>
       </c>
@@ -30558,7 +30570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>111674</v>
       </c>
@@ -30680,7 +30692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>112670</v>
       </c>
@@ -30802,7 +30814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>113142</v>
       </c>
@@ -30924,7 +30936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>3</v>
       </c>
@@ -31046,7 +31058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>15</v>
       </c>
@@ -31168,7 +31180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>28</v>
       </c>
@@ -31290,7 +31302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>50</v>
       </c>
@@ -31412,7 +31424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>80</v>
       </c>
@@ -31534,7 +31546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>97</v>
       </c>
@@ -31656,7 +31668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>159</v>
       </c>
@@ -31778,7 +31790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>232</v>
       </c>
@@ -31900,7 +31912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>244</v>
       </c>
@@ -32022,7 +32034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>263</v>
       </c>
@@ -32144,7 +32156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>485</v>
       </c>
@@ -32388,7 +32400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>691</v>
       </c>
@@ -32510,7 +32522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>744</v>
       </c>
@@ -32632,7 +32644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>1473</v>
       </c>
@@ -32754,7 +32766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>1800</v>
       </c>
@@ -32876,7 +32888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1801</v>
       </c>
@@ -33120,7 +33132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>1819</v>
       </c>
@@ -33242,7 +33254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>1842</v>
       </c>
@@ -33364,7 +33376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1887</v>
       </c>
@@ -33486,7 +33498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>1893</v>
       </c>
@@ -33608,7 +33620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1898</v>
       </c>
@@ -33730,7 +33742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>1952</v>
       </c>
@@ -33852,7 +33864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>101099</v>
       </c>
@@ -33974,7 +33986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>101100</v>
       </c>
@@ -34096,7 +34108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>110093</v>
       </c>
@@ -34218,7 +34230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>110396</v>
       </c>
@@ -34340,7 +34352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>110502</v>
       </c>
@@ -34462,7 +34474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>110636</v>
       </c>
@@ -34706,7 +34718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>110986</v>
       </c>
@@ -34828,7 +34840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>111008</v>
       </c>
@@ -34950,7 +34962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>111019</v>
       </c>
@@ -35072,7 +35084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>111140</v>
       </c>
@@ -35194,7 +35206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>111144</v>
       </c>
@@ -35316,7 +35328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>111339</v>
       </c>
@@ -35438,7 +35450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>111710</v>
       </c>
@@ -35560,7 +35572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>111715</v>
       </c>
@@ -35804,7 +35816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>112026</v>
       </c>
@@ -35926,7 +35938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>112134</v>
       </c>
@@ -36048,7 +36060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>112809</v>
       </c>
@@ -36170,7 +36182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>112885</v>
       </c>
@@ -36292,7 +36304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>114510</v>
       </c>
@@ -36536,7 +36548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>59</v>
       </c>
@@ -36658,7 +36670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>68</v>
       </c>
@@ -36780,7 +36792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>88</v>
       </c>
@@ -36902,7 +36914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>165</v>
       </c>
@@ -37024,7 +37036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>171</v>
       </c>
@@ -37146,7 +37158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>203</v>
       </c>
@@ -37512,7 +37524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>260</v>
       </c>
@@ -37634,7 +37646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>320</v>
       </c>
@@ -37756,7 +37768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>459</v>
       </c>
@@ -37878,7 +37890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>634</v>
       </c>
@@ -38000,7 +38012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>670</v>
       </c>
@@ -38122,7 +38134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>687</v>
       </c>
@@ -38244,7 +38256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>688</v>
       </c>
@@ -38366,7 +38378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>696</v>
       </c>
@@ -38488,7 +38500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>873</v>
       </c>
@@ -38610,7 +38622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>896</v>
       </c>
@@ -38732,7 +38744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>918</v>
       </c>
@@ -38854,7 +38866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>1013</v>
       </c>
@@ -38976,7 +38988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1334</v>
       </c>
@@ -39089,7 +39101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>1438</v>
       </c>
@@ -39211,7 +39223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>1477</v>
       </c>
@@ -39333,7 +39345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>1745</v>
       </c>
@@ -39455,7 +39467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>1793</v>
       </c>
@@ -39577,7 +39589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>1806</v>
       </c>
@@ -39699,7 +39711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>1832</v>
       </c>
@@ -39821,7 +39833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>1847</v>
       </c>
@@ -39940,7 +39952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>1892</v>
       </c>
@@ -40062,7 +40074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>1909</v>
       </c>
@@ -40184,7 +40196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>1910</v>
       </c>
@@ -40306,7 +40318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>1913</v>
       </c>
@@ -40428,7 +40440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>1919</v>
       </c>
@@ -40550,7 +40562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>1923</v>
       </c>
@@ -40672,7 +40684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>1939</v>
       </c>
@@ -40794,7 +40806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>1960</v>
       </c>
@@ -40916,7 +40928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>10020</v>
       </c>
@@ -41038,7 +41050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>10030</v>
       </c>
@@ -41160,7 +41172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>10031</v>
       </c>
@@ -41282,7 +41294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>10846</v>
       </c>
@@ -41404,7 +41416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>100081</v>
       </c>
@@ -41526,7 +41538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>100087</v>
       </c>
@@ -41648,7 +41660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>100135</v>
       </c>
@@ -41770,7 +41782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>100851</v>
       </c>
@@ -41892,7 +41904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>101020</v>
       </c>
@@ -42014,7 +42026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>101028</v>
       </c>
@@ -42136,7 +42148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>101033</v>
       </c>
@@ -42258,7 +42270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>101041</v>
       </c>
@@ -42380,7 +42392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>101108</v>
       </c>
@@ -42502,7 +42514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>110081</v>
       </c>
@@ -42615,7 +42627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>110178</v>
       </c>
@@ -42737,7 +42749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>110329</v>
       </c>
@@ -42859,7 +42871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>110404</v>
       </c>
@@ -42981,7 +42993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>110724</v>
       </c>
@@ -43103,7 +43115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>110738</v>
       </c>
@@ -43225,7 +43237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>110776</v>
       </c>
@@ -43347,7 +43359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>110827</v>
       </c>
@@ -43469,7 +43481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>110839</v>
       </c>
@@ -43713,7 +43725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>110980</v>
       </c>
@@ -43835,7 +43847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>111138</v>
       </c>
@@ -43957,7 +43969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>111235</v>
       </c>
@@ -44079,7 +44091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>111527</v>
       </c>
@@ -44192,7 +44204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>111539</v>
       </c>
@@ -44314,7 +44326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>111651</v>
       </c>
@@ -44436,7 +44448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>111701</v>
       </c>
@@ -44558,7 +44570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>111706</v>
       </c>
@@ -44680,7 +44692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>111711</v>
       </c>
@@ -44802,7 +44814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>111716</v>
       </c>
@@ -44924,7 +44936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>111724</v>
       </c>
@@ -45046,7 +45058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>111817</v>
       </c>
@@ -45168,7 +45180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>112716</v>
       </c>
@@ -45290,7 +45302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>114161</v>
       </c>
@@ -45412,7 +45424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>114162</v>
       </c>
@@ -45534,7 +45546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>27</v>
       </c>
@@ -45656,7 +45668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>29</v>
       </c>
@@ -45778,7 +45790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>106</v>
       </c>
@@ -45900,7 +45912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>190</v>
       </c>
@@ -46022,7 +46034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>210</v>
       </c>
@@ -46144,7 +46156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>226</v>
       </c>
@@ -46388,7 +46400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>269</v>
       </c>
@@ -46510,7 +46522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>308</v>
       </c>
@@ -46632,7 +46644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>324</v>
       </c>
@@ -46754,7 +46766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>417</v>
       </c>
@@ -46876,7 +46888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>518</v>
       </c>
@@ -46998,7 +47010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>543</v>
       </c>
@@ -47120,7 +47132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>570</v>
       </c>
@@ -47242,7 +47254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>573</v>
       </c>
@@ -47364,7 +47376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>576</v>
       </c>
@@ -47486,7 +47498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>680</v>
       </c>
@@ -47608,7 +47620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>681</v>
       </c>
@@ -47730,7 +47742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>682</v>
       </c>
@@ -47852,7 +47864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>689</v>
       </c>
@@ -47974,7 +47986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>695</v>
       </c>
@@ -48096,7 +48108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>697</v>
       </c>
@@ -48218,7 +48230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>710</v>
       </c>
@@ -48340,7 +48352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>820</v>
       </c>
@@ -48462,7 +48474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>894</v>
       </c>
@@ -48584,7 +48596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>1341</v>
       </c>
@@ -48697,7 +48709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>1744</v>
       </c>
@@ -48819,7 +48831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>1750</v>
       </c>
@@ -48941,7 +48953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>1843</v>
       </c>
@@ -49063,7 +49075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>1848</v>
       </c>
@@ -49185,7 +49197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>1871</v>
       </c>
@@ -49307,7 +49319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>1917</v>
       </c>
@@ -49429,7 +49441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>1926</v>
       </c>
@@ -49551,7 +49563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>1961</v>
       </c>
@@ -49673,7 +49685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>2023</v>
       </c>
@@ -49795,7 +49807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>15005</v>
       </c>
@@ -49917,7 +49929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>100761</v>
       </c>
@@ -50039,7 +50051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>100888</v>
       </c>
@@ -50161,7 +50173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>101084</v>
       </c>
@@ -50283,7 +50295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>101101</v>
       </c>
@@ -50405,7 +50417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>101103</v>
       </c>
@@ -50527,7 +50539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>101112</v>
       </c>
@@ -50649,7 +50661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>110500</v>
       </c>
@@ -50771,7 +50783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>110569</v>
       </c>
@@ -50893,7 +50905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>110580</v>
       </c>
@@ -51015,7 +51027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>110770</v>
       </c>
@@ -51137,7 +51149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>110816</v>
       </c>
@@ -51381,7 +51393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>110975</v>
       </c>
@@ -51503,7 +51515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>111013</v>
       </c>
@@ -51625,7 +51637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>111117</v>
       </c>
@@ -51747,7 +51759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>111325</v>
       </c>
@@ -51869,7 +51881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>111334</v>
       </c>
@@ -51991,7 +52003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>111473</v>
       </c>
@@ -52104,7 +52116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>111657</v>
       </c>
@@ -52226,7 +52238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>111708</v>
       </c>
@@ -52348,7 +52360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>111722</v>
       </c>
@@ -52470,7 +52482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>112390</v>
       </c>
@@ -52592,7 +52604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>112513</v>
       </c>
@@ -52714,7 +52726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>112893</v>
       </c>
@@ -52836,7 +52848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>112908</v>
       </c>
@@ -52958,7 +52970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>113149</v>
       </c>
@@ -53080,7 +53092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>113981</v>
       </c>
@@ -53202,7 +53214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>114326</v>
       </c>
@@ -53324,7 +53336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>116361</v>
       </c>
@@ -53446,7 +53458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>62</v>
       </c>
@@ -53568,7 +53580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>81</v>
       </c>
@@ -53690,7 +53702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>91</v>
       </c>
@@ -53812,7 +53824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>94</v>
       </c>
@@ -53934,7 +53946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>199</v>
       </c>
@@ -54056,7 +54068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>224</v>
       </c>
@@ -54300,7 +54312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>271</v>
       </c>
@@ -54422,7 +54434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>298</v>
       </c>
@@ -54544,7 +54556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>456</v>
       </c>
@@ -54666,7 +54678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>694</v>
       </c>
@@ -54788,7 +54800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>711</v>
       </c>
@@ -54910,7 +54922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>897</v>
       </c>
@@ -55032,7 +55044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>982</v>
       </c>
@@ -55154,7 +55166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>983</v>
       </c>
@@ -55276,7 +55288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>1786</v>
       </c>
@@ -55398,7 +55410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>1797</v>
       </c>
@@ -55520,7 +55532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>1807</v>
       </c>
@@ -55642,7 +55654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>1816</v>
       </c>
@@ -55764,7 +55776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>1854</v>
       </c>
@@ -55886,7 +55898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>1915</v>
       </c>
@@ -56008,7 +56020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>1938</v>
       </c>
@@ -56130,7 +56142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>2013</v>
       </c>
@@ -56252,7 +56264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>10032</v>
       </c>
@@ -56374,7 +56386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>100646</v>
       </c>
@@ -56496,7 +56508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>110588</v>
       </c>
@@ -56618,7 +56630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>110746</v>
       </c>
@@ -56740,7 +56752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>110831</v>
       </c>
@@ -56862,7 +56874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>110984</v>
       </c>
@@ -56984,7 +56996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>111010</v>
       </c>
@@ -57106,7 +57118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>111011</v>
       </c>
@@ -57228,7 +57240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>111139</v>
       </c>
@@ -57350,7 +57362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>111397</v>
       </c>
@@ -57472,7 +57484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>112096</v>
       </c>
@@ -57594,7 +57606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>112120</v>
       </c>
@@ -57716,7 +57728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>112168</v>
       </c>
@@ -57838,7 +57850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>112224</v>
       </c>
@@ -57960,7 +57972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>112393</v>
       </c>
@@ -58082,7 +58094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>112540</v>
       </c>
@@ -58204,7 +58216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>112606</v>
       </c>
@@ -58326,7 +58338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>112689</v>
       </c>
@@ -58448,7 +58460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>112713</v>
       </c>
@@ -58570,7 +58582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>112791</v>
       </c>
@@ -58692,7 +58704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>113057</v>
       </c>
@@ -58814,7 +58826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>113217</v>
       </c>
@@ -58936,7 +58948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>113796</v>
       </c>
@@ -59058,7 +59070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>114581</v>
       </c>
@@ -59180,7 +59192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>114640</v>
       </c>
@@ -59302,7 +59314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>33</v>
       </c>
@@ -59424,7 +59436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>77</v>
       </c>
@@ -59546,7 +59558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>181</v>
       </c>
@@ -59668,7 +59680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>270</v>
       </c>
@@ -59790,7 +59802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>299</v>
       </c>
@@ -59912,7 +59924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>300</v>
       </c>
@@ -60034,7 +60046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>310</v>
       </c>
@@ -60156,7 +60168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>322</v>
       </c>
@@ -60278,7 +60290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>433</v>
       </c>
@@ -60400,7 +60412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>503</v>
       </c>
@@ -60522,7 +60534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>523</v>
       </c>
@@ -60644,7 +60656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>647</v>
       </c>
@@ -60766,7 +60778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>693</v>
       </c>
@@ -60888,7 +60900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>698</v>
       </c>
@@ -61010,7 +61022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>700</v>
       </c>
@@ -61132,7 +61144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>702</v>
       </c>
@@ -61254,7 +61266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>898</v>
       </c>
@@ -61376,7 +61388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>920</v>
       </c>
@@ -61498,7 +61510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>1474</v>
       </c>
@@ -61620,7 +61632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>1478</v>
       </c>
@@ -61742,7 +61754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>1738</v>
       </c>
@@ -61864,7 +61876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>1788</v>
       </c>
@@ -61986,7 +61998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>1805</v>
       </c>
@@ -62108,7 +62120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>1814</v>
       </c>
@@ -62230,7 +62242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>1905</v>
       </c>
@@ -62352,7 +62364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>1929</v>
       </c>
@@ -62474,7 +62486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>1933</v>
       </c>
@@ -62718,7 +62730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>2056</v>
       </c>
@@ -62840,7 +62852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>100628</v>
       </c>
@@ -62962,7 +62974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>100632</v>
       </c>
@@ -63084,7 +63096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>101102</v>
       </c>
@@ -63206,7 +63218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>101110</v>
       </c>
@@ -63328,7 +63340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>110069</v>
       </c>
@@ -63450,7 +63462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>110075</v>
       </c>
@@ -63572,7 +63584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>110456</v>
       </c>
@@ -63694,7 +63706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>110765</v>
       </c>
@@ -63816,7 +63828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>110902</v>
       </c>
@@ -63938,7 +63950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>110969</v>
       </c>
@@ -64060,7 +64072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>110981</v>
       </c>
@@ -64182,7 +64194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>111065</v>
       </c>
@@ -64304,7 +64316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>111086</v>
       </c>
@@ -64426,7 +64438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>111091</v>
       </c>
@@ -64548,7 +64560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>111239</v>
       </c>
@@ -64670,7 +64682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>111326</v>
       </c>
@@ -64792,7 +64804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>111400</v>
       </c>
@@ -64914,7 +64926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>111768</v>
       </c>
@@ -65158,7 +65170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>111928</v>
       </c>
@@ -65280,7 +65292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>111993</v>
       </c>
@@ -65402,7 +65414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>112392</v>
       </c>
@@ -65524,7 +65536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>112408</v>
       </c>
@@ -65646,7 +65658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>112427</v>
       </c>
@@ -65768,7 +65780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>112494</v>
       </c>
@@ -65890,7 +65902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>112523</v>
       </c>
@@ -66012,7 +66024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>112558</v>
       </c>
@@ -66134,7 +66146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>112584</v>
       </c>
@@ -66256,7 +66268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>112828</v>
       </c>
@@ -66378,7 +66390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>112965</v>
       </c>
@@ -66500,7 +66512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>113044</v>
       </c>
@@ -66622,7 +66634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>113058</v>
       </c>
@@ -66744,7 +66756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>113378</v>
       </c>
@@ -66866,7 +66878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>114023</v>
       </c>
@@ -66988,7 +67000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>114554</v>
       </c>
@@ -67110,7 +67122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>4</v>
       </c>
@@ -67232,7 +67244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>83</v>
       </c>
@@ -67354,7 +67366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>89</v>
       </c>
@@ -67476,7 +67488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>127</v>
       </c>
@@ -67598,7 +67610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>420</v>
       </c>
@@ -67720,7 +67732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>506</v>
       </c>
@@ -67842,7 +67854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>645</v>
       </c>
@@ -67964,7 +67976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>708</v>
       </c>
@@ -68208,7 +68220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>1443</v>
       </c>
@@ -68330,7 +68342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="515" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>1569</v>
       </c>
@@ -68574,7 +68586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="517" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>1790</v>
       </c>
@@ -68696,7 +68708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="518" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>1932</v>
       </c>
@@ -68818,7 +68830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>1951</v>
       </c>
@@ -68940,7 +68952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>1971</v>
       </c>
@@ -69184,7 +69196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>100804</v>
       </c>
@@ -69306,7 +69318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>110321</v>
       </c>
@@ -69428,7 +69440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>110532</v>
       </c>
@@ -69550,7 +69562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>110581</v>
       </c>
@@ -69672,7 +69684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>110645</v>
       </c>
@@ -69794,7 +69806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="527" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>110745</v>
       </c>
@@ -69916,7 +69928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>110747</v>
       </c>
@@ -70038,7 +70050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>110749</v>
       </c>
@@ -70160,7 +70172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="530" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>110750</v>
       </c>
@@ -70282,7 +70294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>110751</v>
       </c>
@@ -70404,7 +70416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>110955</v>
       </c>
@@ -70526,7 +70538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>110977</v>
       </c>
@@ -70648,7 +70660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>111088</v>
       </c>
@@ -70770,7 +70782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>111092</v>
       </c>
@@ -70892,7 +70904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>111773</v>
       </c>
@@ -71014,7 +71026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>112115</v>
       </c>
@@ -71136,7 +71148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="538" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>112184</v>
       </c>
@@ -71258,7 +71270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>112552</v>
       </c>
@@ -71380,7 +71392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="540" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>112572</v>
       </c>
@@ -71502,7 +71514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="541" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>112695</v>
       </c>
@@ -71624,7 +71636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>112853</v>
       </c>
@@ -71746,7 +71758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>112914</v>
       </c>
@@ -71868,7 +71880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>113182</v>
       </c>
@@ -71990,7 +72002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>114147</v>
       </c>
@@ -72112,7 +72124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="546" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>114577</v>
       </c>
@@ -72234,7 +72246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>114688</v>
       </c>
@@ -72356,7 +72368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="548" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>115517</v>
       </c>
@@ -72478,7 +72490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="549" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>115716</v>
       </c>
@@ -72600,7 +72612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>58</v>
       </c>
@@ -72722,7 +72734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>82</v>
       </c>
@@ -72844,7 +72856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="552" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>272</v>
       </c>
@@ -72966,7 +72978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="553" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>301</v>
       </c>
@@ -73088,7 +73100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>319</v>
       </c>
@@ -73210,7 +73222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>487</v>
       </c>
@@ -73332,7 +73344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>492</v>
       </c>
@@ -73454,7 +73466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>526</v>
       </c>
@@ -73576,7 +73588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="558" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>580</v>
       </c>
@@ -73698,7 +73710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="559" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>621</v>
       </c>
@@ -73820,7 +73832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="560" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>631</v>
       </c>
@@ -73942,7 +73954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="561" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>746</v>
       </c>
@@ -74064,7 +74076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="562" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>922</v>
       </c>
@@ -74186,7 +74198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="563" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>1798</v>
       </c>
@@ -74308,7 +74320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>1813</v>
       </c>
@@ -74430,7 +74442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>1825</v>
       </c>
@@ -74552,7 +74564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="566" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>1944</v>
       </c>
@@ -74674,7 +74686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="567" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>1962</v>
       </c>
@@ -74918,7 +74930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>15015</v>
       </c>
@@ -75040,7 +75052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="570" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>100325</v>
       </c>
@@ -75162,7 +75174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="571" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>100759</v>
       </c>
@@ -75284,7 +75296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="572" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>100805</v>
       </c>
@@ -75406,7 +75418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="573" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>110078</v>
       </c>
@@ -75525,7 +75537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>110592</v>
       </c>
@@ -75647,7 +75659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="575" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>110597</v>
       </c>
@@ -75769,7 +75781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>110974</v>
       </c>
@@ -75891,7 +75903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="577" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>110989</v>
       </c>
@@ -76013,7 +76025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="578" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>110990</v>
       </c>
@@ -76135,7 +76147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="579" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>111001</v>
       </c>
@@ -76257,7 +76269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="580" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>111332</v>
       </c>
@@ -76379,7 +76391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="581" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>111393</v>
       </c>
@@ -76501,7 +76513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="582" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>111659</v>
       </c>
@@ -76623,7 +76635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="583" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>111707</v>
       </c>
@@ -76745,7 +76757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="584" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>111766</v>
       </c>
@@ -76867,7 +76879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="585" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>111769</v>
       </c>
@@ -76989,7 +77001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>111779</v>
       </c>
@@ -77111,7 +77123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>112260</v>
       </c>
@@ -77233,7 +77245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="588" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>112505</v>
       </c>
@@ -77355,7 +77367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>112511</v>
       </c>
@@ -77477,7 +77489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="590" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>112585</v>
       </c>
@@ -77599,7 +77611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="591" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>112671</v>
       </c>
@@ -77721,7 +77733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="592" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>112883</v>
       </c>
@@ -77843,7 +77855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>113345</v>
       </c>
@@ -77965,7 +77977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>113387</v>
       </c>
@@ -78087,7 +78099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>114004</v>
       </c>
@@ -78209,7 +78221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>114512</v>
       </c>
@@ -78331,7 +78343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="597" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>114579</v>
       </c>
@@ -78453,7 +78465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>114580</v>
       </c>
@@ -78575,7 +78587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>114615</v>
       </c>
@@ -78697,7 +78709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="600" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>115487</v>
       </c>
@@ -78819,7 +78831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>115494</v>
       </c>
@@ -78941,7 +78953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="602" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>115536</v>
       </c>
@@ -79063,7 +79075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="603" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>115694</v>
       </c>
@@ -79185,7 +79197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="604" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>143</v>
       </c>
@@ -79307,7 +79319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>149</v>
       </c>
@@ -79429,7 +79441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="606" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>306</v>
       </c>
@@ -79551,7 +79563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>357</v>
       </c>
@@ -79673,7 +79685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>361</v>
       </c>
@@ -79795,7 +79807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>561</v>
       </c>
@@ -80039,7 +80051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="611" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>1446</v>
       </c>
@@ -80161,7 +80173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="612" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>1463</v>
       </c>
@@ -80283,7 +80295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>1713</v>
       </c>
@@ -80405,7 +80417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="614" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>1928</v>
       </c>
@@ -80527,7 +80539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="615" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>1930</v>
       </c>
@@ -80649,7 +80661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="616" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>1931</v>
       </c>
@@ -80771,7 +80783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="617" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>1936</v>
       </c>
@@ -80893,7 +80905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="618" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>15001</v>
       </c>
@@ -81015,7 +81027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="619" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>110313</v>
       </c>
@@ -81137,7 +81149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="620" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>110394</v>
       </c>
@@ -81259,7 +81271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="621" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>110482</v>
       </c>
@@ -81381,7 +81393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>110501</v>
       </c>
@@ -81503,7 +81515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>110587</v>
       </c>
@@ -81625,7 +81637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>110676</v>
       </c>
@@ -81747,7 +81759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>110752</v>
       </c>
@@ -81869,7 +81881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="626" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>110970</v>
       </c>
@@ -81991,7 +82003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="627" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>111016</v>
       </c>
@@ -82113,7 +82125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="628" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>111083</v>
       </c>
@@ -82235,7 +82247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="629" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>111396</v>
       </c>
@@ -82357,7 +82369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="630" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>111398</v>
       </c>
@@ -82479,7 +82491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="631" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>111399</v>
       </c>
@@ -82601,7 +82613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="632" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>112080</v>
       </c>
@@ -82723,7 +82735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>112163</v>
       </c>
@@ -82845,7 +82857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>112199</v>
       </c>
@@ -82967,7 +82979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="635" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>112533</v>
       </c>
@@ -83089,7 +83101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="636" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>112990</v>
       </c>
@@ -83211,7 +83223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>113146</v>
       </c>
@@ -83333,7 +83345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="638" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>113458</v>
       </c>
@@ -83455,7 +83467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="639" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>113926</v>
       </c>
@@ -83577,7 +83589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>114600</v>
       </c>
@@ -83699,7 +83711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>114604</v>
       </c>
@@ -83821,7 +83833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="642" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>116007</v>
       </c>
@@ -83943,7 +83955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="643" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>116360</v>
       </c>
@@ -84065,7 +84077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>142</v>
       </c>
@@ -84187,7 +84199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>418</v>
       </c>
@@ -84309,7 +84321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="646" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>432</v>
       </c>
@@ -84431,7 +84443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="647" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>1413</v>
       </c>
@@ -84544,7 +84556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="648" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>1480</v>
       </c>
@@ -84666,7 +84678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="649" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>1755</v>
       </c>
@@ -84788,7 +84800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>1757</v>
       </c>
@@ -84910,7 +84922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="651" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>1802</v>
       </c>
@@ -85032,7 +85044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>1803</v>
       </c>
@@ -85154,7 +85166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>1804</v>
       </c>
@@ -85276,7 +85288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>1934</v>
       </c>
@@ -85398,7 +85410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>1935</v>
       </c>
@@ -85520,7 +85532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="656" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>1940</v>
       </c>
@@ -85642,7 +85654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="657" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>1947</v>
       </c>
@@ -85764,7 +85776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="658" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>1958</v>
       </c>
@@ -85886,7 +85898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>110194</v>
       </c>
@@ -86008,7 +86020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="660" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>110691</v>
       </c>
@@ -86130,7 +86142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="661" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>110799</v>
       </c>
@@ -86252,7 +86264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>112126</v>
       </c>
@@ -86374,7 +86386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="663" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>112259</v>
       </c>
@@ -86496,7 +86508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>112535</v>
       </c>
@@ -86618,7 +86630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="665" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>113300</v>
       </c>
@@ -86740,7 +86752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>113380</v>
       </c>
@@ -86862,7 +86874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>113459</v>
       </c>
@@ -86984,7 +86996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="668" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>113892</v>
       </c>
@@ -87106,7 +87118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="669" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>92</v>
       </c>
@@ -87228,7 +87240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="670" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>121</v>
       </c>
@@ -87350,7 +87362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="671" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>381</v>
       </c>
@@ -87472,7 +87484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="672" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>1439</v>
       </c>
@@ -87594,7 +87606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="673" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>1456</v>
       </c>
@@ -87716,7 +87728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="674" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>1756</v>
       </c>
@@ -87838,7 +87850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="675" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>1941</v>
       </c>
@@ -87960,7 +87972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="676" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>1955</v>
       </c>
@@ -88082,7 +88094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>15048</v>
       </c>
@@ -88204,7 +88216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="678" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>110890</v>
       </c>
@@ -88326,7 +88338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="679" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>111395</v>
       </c>
@@ -88448,7 +88460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="680" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>111774</v>
       </c>
@@ -88570,7 +88582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="681" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>111839</v>
       </c>
@@ -88692,7 +88704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="682" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>112222</v>
       </c>
@@ -88814,7 +88826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="683" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>112254</v>
       </c>
@@ -88936,7 +88948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="684" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684">
         <v>112429</v>
       </c>
@@ -89058,7 +89070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="685" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>112541</v>
       </c>
@@ -89180,7 +89192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="686" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>112985</v>
       </c>
@@ -89302,7 +89314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="687" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>113299</v>
       </c>
@@ -89424,7 +89436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="688" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>113301</v>
       </c>
@@ -89546,7 +89558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="689" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>113302</v>
       </c>
@@ -89668,7 +89680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>113743</v>
       </c>
@@ -89790,7 +89802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="691" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>115489</v>
       </c>
@@ -89912,7 +89924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="692" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>423</v>
       </c>
@@ -90034,7 +90046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="693" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>445</v>
       </c>
@@ -90156,7 +90168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="694" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>563</v>
       </c>
@@ -90278,7 +90290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="695" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>837</v>
       </c>
@@ -90400,7 +90412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>1596</v>
       </c>
@@ -90522,7 +90534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>2055</v>
       </c>
@@ -90644,7 +90656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="698" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>112072</v>
       </c>
@@ -90766,7 +90778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="699" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>112378</v>
       </c>
@@ -90888,7 +90900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="700" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>113298</v>
       </c>
@@ -91010,7 +91022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>114628</v>
       </c>
@@ -91132,7 +91144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>305</v>
       </c>
@@ -91254,7 +91266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>981</v>
       </c>
@@ -91376,7 +91388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="704" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704">
         <v>113297</v>
       </c>
@@ -91498,7 +91510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="705" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>834</v>
       </c>
@@ -91620,7 +91632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>113257</v>
       </c>
@@ -91742,7 +91754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="707" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>114168</v>
       </c>
@@ -91864,7 +91876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="708" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>111131</v>
       </c>
@@ -91986,7 +91998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="709" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>111629</v>
       </c>
@@ -92108,7 +92120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="710" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>113040</v>
       </c>
@@ -92230,7 +92242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="711" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>1572</v>
       </c>
@@ -92352,7 +92364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="712" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>112978</v>
       </c>
@@ -92474,7 +92486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="713" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>111132</v>
       </c>
@@ -92597,6 +92609,17 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BB713" xr:uid="{4074A68B-D111-46B1-A337-BBD59D04A976}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Bundesliga"/>
+        <filter val="La Liga"/>
+        <filter val="Ligue 1"/>
+        <filter val="Premier League"/>
+        <filter val="Serie A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>